--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D962A836-5059-4BAA-AA81-B90BD38735AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B00440-5D3D-4219-A1C7-8260EE90D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Team Name</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Group B</t>
+  </si>
+  <si>
+    <t>Goal Scored</t>
+  </si>
+  <si>
+    <t>Goal Concedered</t>
+  </si>
+  <si>
+    <t>Penalty Points</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Red</t>
   </si>
 </sst>
 </file>
@@ -100,15 +118,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,15 +167,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,15 +509,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="6"/>
+    <col min="13" max="13" width="8.88671875" style="8"/>
+    <col min="14" max="14" width="8.88671875" style="10"/>
+    <col min="17" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="3.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,21 +545,45 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -492,59 +592,125 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <f>+L2*$R$1+M2*$R$2+N2*$R$3</f>
+        <v>-7</v>
+      </c>
+      <c r="I2">
+        <f>(C2*3)+(D2*1)</f>
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L2" s="6">
+        <v>5</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H11" si="0">+L3*$R$1+M3*$R$2+N3*$R$3</f>
+        <v>-7</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="1">(C3*3)+(D3*1)</f>
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="10">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -552,22 +718,36 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -578,19 +758,33 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -601,19 +795,30 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -630,13 +835,24 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -647,19 +863,30 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -670,19 +897,30 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -699,13 +937,25 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B00440-5D3D-4219-A1C7-8260EE90D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991DC04-8830-46AA-84C4-2AF47D4DB867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Team Name</t>
   </si>
@@ -43,36 +43,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Team A</t>
-  </si>
-  <si>
-    <t>Team B</t>
-  </si>
-  <si>
-    <t>Team C</t>
-  </si>
-  <si>
-    <t>Team D</t>
-  </si>
-  <si>
-    <t>Team E</t>
-  </si>
-  <si>
-    <t>Team F</t>
-  </si>
-  <si>
-    <t>Team G</t>
-  </si>
-  <si>
-    <t>Team H</t>
-  </si>
-  <si>
-    <t>Team I</t>
-  </si>
-  <si>
-    <t>Team J</t>
-  </si>
-  <si>
     <t>Group A</t>
   </si>
   <si>
@@ -95,6 +65,33 @@
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>Mora B</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Wayamba</t>
+  </si>
+  <si>
+    <t>Kelani</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Mora A</t>
+  </si>
+  <si>
+    <t>Ruhuna</t>
+  </si>
+  <si>
+    <t>Japura</t>
+  </si>
+  <si>
+    <t>Rajarata</t>
   </si>
 </sst>
 </file>
@@ -509,14 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
@@ -545,13 +543,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -560,16 +558,16 @@
         <v>6</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R1" s="6">
         <v>-1</v>
@@ -577,48 +575,39 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <f>+L2*$R$1+M2*$R$2+N2*$R$3</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>(C2*3)+(D2*1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6">
-        <v>5</v>
-      </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="R2" s="8">
         <v>-2</v>
@@ -626,45 +615,39 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H11" si="0">+L3*$R$1+M3*$R$2+N3*$R$3</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" si="1">(C3*3)+(D3*1)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R3" s="10">
         <v>-5</v>
@@ -672,139 +655,127 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6">
-        <v>2</v>
-      </c>
-      <c r="N4" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
@@ -812,33 +783,33 @@
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
@@ -846,33 +817,33 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
@@ -880,33 +851,33 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
@@ -914,44 +885,10 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991DC04-8830-46AA-84C4-2AF47D4DB867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA60F0C6-9776-46BE-8852-232EDD473B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,11 +636,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H11" si="0">+L3*$R$1+M3*$R$2+N3*$R$3</f>
+        <f t="shared" ref="H3:H10" si="0">+L3*$R$1+M3*$R$2+N3*$R$3</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="1">(C3*3)+(D3*1)</f>
+        <f t="shared" ref="I3:I10" si="1">(C3*3)+(D3*1)</f>
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -760,13 +760,13 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>8</v>
@@ -794,13 +794,13 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA60F0C6-9776-46BE-8852-232EDD473B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F8EC35-D49B-4ED7-8B46-4D197ADB3E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,10 +692,10 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -726,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -735,17 +735,17 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -753,6 +753,9 @@
       </c>
       <c r="J6" t="s">
         <v>7</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F8EC35-D49B-4ED7-8B46-4D197ADB3E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454E3DA-F824-4001-A000-743AC21E09C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,13 +618,13 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,7 +641,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="1">(C3*3)+(D3*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -658,13 +658,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454E3DA-F824-4001-A000-743AC21E09C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADC1926-3B7C-47A2-B480-7961C1673D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,10 +831,10 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -854,7 +854,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
@@ -865,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADC1926-3B7C-47A2-B480-7961C1673D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8D0C5-1E7D-4898-AE64-93810E5CD5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,13 +578,13 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -601,7 +601,7 @@
       </c>
       <c r="I2">
         <f>(C2*3)+(D2*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -618,13 +618,13 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,7 +641,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="1">(C3*3)+(D3*1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8D0C5-1E7D-4898-AE64-93810E5CD5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCDE287-953C-4F53-999D-1AFCEEFBEE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
@@ -692,10 +692,10 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -797,7 +797,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
@@ -831,10 +831,10 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -854,7 +854,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCDE287-953C-4F53-999D-1AFCEEFBEE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C011AB-709C-4654-B12E-6A894D91D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,10 +618,10 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -641,7 +641,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="1">(C3*3)+(D3*1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -726,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C011AB-709C-4654-B12E-6A894D91D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B15B9AE-20A6-4A79-91A0-DB8DE5CE8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,13 +578,13 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -601,7 +601,7 @@
       </c>
       <c r="I2">
         <f>(C2*3)+(D2*1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -658,13 +658,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B15B9AE-20A6-4A79-91A0-DB8DE5CE8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABE2ACD-79E2-49E3-8D04-E4919BADA494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,10 +763,10 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
         <v>8</v>
@@ -865,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABE2ACD-79E2-49E3-8D04-E4919BADA494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DBA06C-4FDA-4659-AD45-BA20EA165B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -587,13 +587,13 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
         <f>+L2*$R$1+M2*$R$2+N2*$R$3</f>
@@ -726,10 +726,10 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DBA06C-4FDA-4659-AD45-BA20EA165B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0211FF41-51C3-49C6-8DD4-20B4D6A25148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,10 +618,10 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -641,7 +641,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="1">(C3*3)+(D3*1)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0211FF41-51C3-49C6-8DD4-20B4D6A25148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD09CCC3-C37E-45FA-AAFE-C15E34A0A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -772,13 +772,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
@@ -831,10 +831,10 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -854,7 +854,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>

--- a/pointtable_girls.xlsx
+++ b/pointtable_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD09CCC3-C37E-45FA-AAFE-C15E34A0A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D9014D-8E90-45A7-B11B-6208E6330F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -587,13 +587,13 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3">
         <f>+L2*$R$1+M2*$R$2+N2*$R$3</f>
@@ -658,13 +658,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -692,10 +692,10 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -726,13 +726,13 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -797,13 +797,13 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -820,7 +820,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -865,13 +865,13 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -888,7 +888,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
